--- a/biology/Zoologie/Bryocorinae/Bryocorinae.xlsx
+++ b/biology/Zoologie/Bryocorinae/Bryocorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bryocorinae sont une sous-famille d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae[1] (Cimicomorpha, Miroidea). Cette sous-famille comprend environ 200 genres et 1000 espèces[2], principalement en régions tropicales, avec peu de représentants dans les zones tempérées. C'est la sous-famille la moins riche en espèce des sous-familles de Miridae, mais celle qui présente le plus d'hétérogénéité morphologique[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bryocorinae sont une sous-famille d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae (Cimicomorpha, Miroidea). Cette sous-famille comprend environ 200 genres et 1000 espèces, principalement en régions tropicales, avec peu de représentants dans les zones tempérées. C'est la sous-famille la moins riche en espèce des sous-familles de Miridae, mais celle qui présente le plus d'hétérogénéité morphologique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-famille se rencontre sur tous les continents. 
 </t>
@@ -542,19 +556,56 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La monophylie des Bryocorinae reste à confirmer, bien qu'elle semble établie par plusieurs études depuis Schuh 1975[4],[5],[3], bien que d'autres travaux aboutissent à un résultat non monophylétique[6],[7].  
-Elle comprend plusieurs tribus : les Bryocorini Baerensprung, 1860,  les Dicyphini Reuter, 1883 et les  Eccritotarsini Berg, 1884, auxquelles Namyatova, Konstantinov &amp; Cassis ont ajouté en 2016 les Felisacini, pour le genre Felisacus, ainsi que les Monaloniini, par élévation de la sous-tribu des Monaloniina, réunie avec celle des Odoniellina (toutes deux auparavant au sein des Dicyphini au sens large)[4]. Cette étude déplace également Palaucoris dans la sous-famille des Cylapinae. Selon ces auteurs, la phylogénie de la sous-famille serait la suivante :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La monophylie des Bryocorinae reste à confirmer, bien qu'elle semble établie par plusieurs études depuis Schuh 1975 bien que d'autres travaux aboutissent à un résultat non monophylétique,.  
+Elle comprend plusieurs tribus : les Bryocorini Baerensprung, 1860,  les Dicyphini Reuter, 1883 et les  Eccritotarsini Berg, 1884, auxquelles Namyatova, Konstantinov &amp; Cassis ont ajouté en 2016 les Felisacini, pour le genre Felisacus, ainsi que les Monaloniini, par élévation de la sous-tribu des Monaloniina, réunie avec celle des Odoniellina (toutes deux auparavant au sein des Dicyphini au sens large). Cette étude déplace également Palaucoris dans la sous-famille des Cylapinae. Selon ces auteurs, la phylogénie de la sous-famille serait la suivante :
 Bryocorinae
 Dicyphini
 Bryocorini
 Eccritotarsini
 Felisacini
 Monaloniini
-Les Bryocorini comprennent sept genres et une cinquantaine d'espèces, les Eccritotarsini environ 110 genres et 650 espèces, les Monaloniini redéfinis comprennent 40 genres, et la tribu des Felisacini est monotypiques (un seul genre)[4],[2]. 
-Liste des tribus
-Selon Namyatova, Konstantinov &amp; Cassis (2015)[4] :
+Les Bryocorini comprennent sept genres et une cinquantaine d'espèces, les Eccritotarsini environ 110 genres et 650 espèces, les Monaloniini redéfinis comprennent 40 genres, et la tribu des Felisacini est monotypiques (un seul genre),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bryocorinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryocorinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Namyatova, Konstantinov &amp; Cassis (2015) :
 tribu Bryocorini Baerensprung, 1860
 tribu Dicyphini Reuter, 1883
 tribu Eccritotarsini Berg, 1884
@@ -565,8 +616,43 @@
 			Eccritotarsini : Hesperolabops gelastops (Texas, États-Unis).
 			Felisacini : Felisacus elegantulus, Nouvelle-Zélande.
 			Monaloniini : Monalonion velezangeli, Bogota, Colombie.
-Liste des genres
-Selon BioLib                    (15 mai 2022)[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bryocorinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryocorinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 mai 2022) :
 tribu Bryocorini Baerensprung, 1860
 genre Bryocorella Carvalho, 1956
 genre Bryocoris Fallén, 1829
